--- a/docs/5u18/doc/_downloads/デフォルト設定一覧.xlsx
+++ b/docs/5u18/doc/_downloads/デフォルト設定一覧.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597D1D32-42C3-4DB2-BC97-FD7C9F7608F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFD0C71-6706-4E2B-8197-CAE9CF56CD0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1080" windowWidth="25200" windowHeight="15030" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4680" windowWidth="38400" windowHeight="10575" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当資料の使い方" sheetId="26" r:id="rId1"/>
@@ -15,22 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'default-configurationプロパティ定義一覧'!$A$2:$T$336</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'default-configurationプロパティ定義一覧'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6036" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6044" uniqueCount="1482">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -6285,7 +6275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6487,9 +6477,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6536,7 +6523,127 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="427">
+  <dxfs count="437">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -12206,14 +12313,14 @@
       <c r="B1" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="77" t="s">
         <v>795</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
       <c r="I1" s="4" t="s">
         <v>790</v>
       </c>
@@ -32622,7 +32729,7 @@
         <f t="shared" si="6"/>
         <v>363</v>
       </c>
-      <c r="B365" s="68" t="s">
+      <c r="B365" s="67" t="s">
         <v>791</v>
       </c>
       <c r="C365" s="36" t="s">
@@ -32680,7 +32787,7 @@
         <f t="shared" si="6"/>
         <v>364</v>
       </c>
-      <c r="B366" s="69"/>
+      <c r="B366" s="68"/>
       <c r="C366" s="36" t="s">
         <v>899</v>
       </c>
@@ -32699,7 +32806,9 @@
       <c r="H366" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I366" s="67"/>
+      <c r="I366" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J366" s="2" t="s">
         <v>1436</v>
       </c>
@@ -32727,12 +32836,12 @@
       </c>
       <c r="S366" s="33"/>
     </row>
-    <row r="367" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:19" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="2">
         <f t="shared" si="6"/>
         <v>365</v>
       </c>
-      <c r="B367" s="69"/>
+      <c r="B367" s="68"/>
       <c r="C367" s="36" t="s">
         <v>899</v>
       </c>
@@ -32751,7 +32860,9 @@
       <c r="H367" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I367" s="2"/>
+      <c r="I367" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J367" s="2" t="s">
         <v>1441</v>
       </c>
@@ -32784,7 +32895,7 @@
         <f t="shared" si="6"/>
         <v>366</v>
       </c>
-      <c r="B368" s="69"/>
+      <c r="B368" s="68"/>
       <c r="C368" s="36" t="s">
         <v>899</v>
       </c>
@@ -32803,7 +32914,9 @@
       <c r="H368" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I368" s="2"/>
+      <c r="I368" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J368" s="2" t="s">
         <v>1447</v>
       </c>
@@ -32836,7 +32949,7 @@
         <f t="shared" si="6"/>
         <v>367</v>
       </c>
-      <c r="B369" s="69"/>
+      <c r="B369" s="68"/>
       <c r="C369" s="36" t="s">
         <v>899</v>
       </c>
@@ -32855,7 +32968,9 @@
       <c r="H369" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I369" s="2"/>
+      <c r="I369" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J369" s="2" t="s">
         <v>1454</v>
       </c>
@@ -32890,7 +33005,7 @@
         <f t="shared" si="6"/>
         <v>368</v>
       </c>
-      <c r="B370" s="69"/>
+      <c r="B370" s="68"/>
       <c r="C370" s="36" t="s">
         <v>899</v>
       </c>
@@ -32909,7 +33024,9 @@
       <c r="H370" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I370" s="2"/>
+      <c r="I370" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J370" s="2" t="s">
         <v>317</v>
       </c>
@@ -32942,7 +33059,7 @@
         <f t="shared" si="6"/>
         <v>369</v>
       </c>
-      <c r="B371" s="69"/>
+      <c r="B371" s="68"/>
       <c r="C371" s="36" t="s">
         <v>899</v>
       </c>
@@ -32961,7 +33078,9 @@
       <c r="H371" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I371" s="2"/>
+      <c r="I371" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J371" s="2" t="s">
         <v>323</v>
       </c>
@@ -32994,7 +33113,7 @@
         <f t="shared" si="6"/>
         <v>370</v>
       </c>
-      <c r="B372" s="69"/>
+      <c r="B372" s="68"/>
       <c r="C372" s="36" t="s">
         <v>899</v>
       </c>
@@ -33013,7 +33132,9 @@
       <c r="H372" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I372" s="2"/>
+      <c r="I372" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J372" s="2" t="s">
         <v>323</v>
       </c>
@@ -33046,7 +33167,7 @@
         <f t="shared" si="6"/>
         <v>371</v>
       </c>
-      <c r="B373" s="70"/>
+      <c r="B373" s="69"/>
       <c r="C373" s="36" t="s">
         <v>899</v>
       </c>
@@ -33065,7 +33186,9 @@
       <c r="H373" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I373" s="2"/>
+      <c r="I373" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J373" s="2" t="s">
         <v>323</v>
       </c>
@@ -33093,119 +33216,119 @@
       </c>
       <c r="S373" s="33"/>
     </row>
-    <row r="374" spans="1:19" s="76" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A374" s="71">
+    <row r="374" spans="1:19" s="75" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="70">
         <f t="shared" si="6"/>
         <v>372</v>
       </c>
-      <c r="B374" s="72" t="s">
+      <c r="B374" s="71" t="s">
         <v>1461</v>
       </c>
-      <c r="C374" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="D374" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="E374" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="F374" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="G374" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="H374" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="I374" s="71" t="s">
+      <c r="C374" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="D374" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="E374" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="F374" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="G374" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="H374" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="I374" s="70" t="s">
         <v>1462</v>
       </c>
-      <c r="J374" s="71" t="s">
+      <c r="J374" s="70" t="s">
         <v>1463</v>
       </c>
-      <c r="K374" s="71" t="s">
+      <c r="K374" s="70" t="s">
         <v>1464</v>
       </c>
-      <c r="L374" s="71" t="s">
+      <c r="L374" s="70" t="s">
         <v>1465</v>
       </c>
-      <c r="M374" s="71" t="s">
+      <c r="M374" s="70" t="s">
         <v>1466</v>
       </c>
-      <c r="N374" s="73" t="s">
+      <c r="N374" s="72" t="s">
         <v>1015</v>
       </c>
-      <c r="O374" s="73" t="s">
+      <c r="O374" s="72" t="s">
         <v>1467</v>
       </c>
-      <c r="P374" s="73" t="s">
+      <c r="P374" s="72" t="s">
         <v>1016</v>
       </c>
-      <c r="Q374" s="73" t="s">
+      <c r="Q374" s="72" t="s">
         <v>1468</v>
       </c>
-      <c r="R374" s="74" t="s">
+      <c r="R374" s="73" t="s">
         <v>1204</v>
       </c>
-      <c r="S374" s="75"/>
-    </row>
-    <row r="375" spans="1:19" s="76" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A375" s="71">
+      <c r="S374" s="74"/>
+    </row>
+    <row r="375" spans="1:19" s="75" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="70">
         <f t="shared" si="6"/>
         <v>373</v>
       </c>
-      <c r="B375" s="77"/>
-      <c r="C375" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="D375" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="E375" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="F375" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="G375" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="H375" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="I375" s="71" t="s">
+      <c r="B375" s="76"/>
+      <c r="C375" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="D375" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="E375" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="F375" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="G375" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="H375" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="I375" s="70" t="s">
         <v>1462</v>
       </c>
-      <c r="J375" s="71" t="s">
+      <c r="J375" s="70" t="s">
         <v>1463</v>
       </c>
-      <c r="K375" s="71" t="s">
+      <c r="K375" s="70" t="s">
         <v>1464</v>
       </c>
-      <c r="L375" s="71" t="s">
+      <c r="L375" s="70" t="s">
         <v>1465</v>
       </c>
-      <c r="M375" s="71" t="s">
+      <c r="M375" s="70" t="s">
         <v>1466</v>
       </c>
-      <c r="N375" s="73" t="s">
+      <c r="N375" s="72" t="s">
         <v>1469</v>
       </c>
-      <c r="O375" s="73" t="s">
+      <c r="O375" s="72" t="s">
         <v>1470</v>
       </c>
-      <c r="P375" s="73" t="s">
+      <c r="P375" s="72" t="s">
         <v>1471</v>
       </c>
-      <c r="Q375" s="73" t="s">
+      <c r="Q375" s="72" t="s">
         <v>1468</v>
       </c>
-      <c r="R375" s="74" t="s">
+      <c r="R375" s="73" t="s">
         <v>1472</v>
       </c>
-      <c r="S375" s="75"/>
+      <c r="S375" s="74"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:T336" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -33214,2138 +33337,2168 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I191:I195 B191:B195 I244:I248 B244:B248 I123:I140 B123:B140 I250:I259 I85:I88 B250:B259 I142:I144 B142:B144 I261:I264 B261:B264 I333:I336 I309:I314 I268:I297 I17:I31 B4:B10 B17:B31 I4:I10 B33:B74 I33:I74 B148 I148 I90:I103 I106:I121 B106:B121 I186:I187 B186:B187 I173:I179 B173:B179 I158:I171 B158:B171 B153:B155 I151:I155 I181:I184 B181:B184 B85:B103 I197:I217 B197:B217 I77:I82 B77:B83 I220:I236 I239:I242 B220:B236 B239:B242">
-    <cfRule type="cellIs" dxfId="426" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="610" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J191:J195 J244:J248 J123:J140 J250:J259 J142:J144 J261:J264 J333:J336 J309:J314 J4:J10 J17:J31 J267:J297 J33:J74 J146:J148 J97:J103 J106:J121 J186:J187 J173:J179 J158:J171 J151:J155 J181:J184 J85:J95 J197:J217 J77:J82 J220:J236 J239:J242">
-    <cfRule type="cellIs" dxfId="425" priority="599" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="609" operator="equal">
       <formula>$J3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J190">
-    <cfRule type="cellIs" dxfId="424" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="612" operator="equal">
       <formula>$J2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L191:L195 L244:L248 L123:L140 L250:L259 L142:L144 L261:L264 L333:L336 L309:L314 L17:L31 L4:L10 L267:L297 L33:L74 L147:L148 L97:L103 L106:L121 L186:L187 L173:L179 L158:L171 L151:L155 L181:L184 L85:L95 L197:L217 L77:L82 L220:L236 L239:L242">
-    <cfRule type="cellIs" dxfId="423" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="607" operator="equal">
       <formula>$L3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M191:M195 M244:M248 M123:M140 M250:M259 M142:M144 M261:M264 M333:M336 M309:M314 M4:M10 M17:M31 M267:M297 M33:M74 M147:M148 M97:M103 M106:M121 M186:M187 M173:M179 M158:M171 M151:M155 M181:M184 M85:M95 M197:M217 M77:M82 M220:M236 M239:M242">
-    <cfRule type="cellIs" dxfId="422" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="606" operator="equal">
       <formula>$M3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122 B122">
-    <cfRule type="cellIs" dxfId="421" priority="608" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="618" operator="equal">
       <formula>$I95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J122">
-    <cfRule type="cellIs" dxfId="420" priority="611" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="621" operator="equal">
       <formula>$J95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L122">
-    <cfRule type="cellIs" dxfId="419" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="624" operator="equal">
       <formula>$L95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M122">
-    <cfRule type="cellIs" dxfId="418" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="627" operator="equal">
       <formula>$M95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I141 B141">
-    <cfRule type="cellIs" dxfId="417" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="636" operator="equal">
       <formula>$I121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96">
-    <cfRule type="cellIs" dxfId="416" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="639" operator="equal">
       <formula>$J140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J141">
-    <cfRule type="cellIs" dxfId="415" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="640" operator="equal">
       <formula>$J121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L96">
-    <cfRule type="cellIs" dxfId="414" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="643" operator="equal">
       <formula>$L140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L141">
-    <cfRule type="cellIs" dxfId="413" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="644" operator="equal">
       <formula>$L121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96">
-    <cfRule type="cellIs" dxfId="412" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="647" operator="equal">
       <formula>$M140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M141">
-    <cfRule type="cellIs" dxfId="411" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="648" operator="equal">
       <formula>$M121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="cellIs" dxfId="410" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="600" operator="equal">
       <formula>$I133</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I260 B260">
-    <cfRule type="cellIs" dxfId="409" priority="644" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="654" operator="equal">
       <formula>$I31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J260">
-    <cfRule type="cellIs" dxfId="408" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="660" operator="equal">
       <formula>$J31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L260">
-    <cfRule type="cellIs" dxfId="407" priority="654" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="664" operator="equal">
       <formula>$L31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M260">
-    <cfRule type="cellIs" dxfId="406" priority="657" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="667" operator="equal">
       <formula>$M31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L190">
-    <cfRule type="cellIs" dxfId="405" priority="671" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="681" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M190">
-    <cfRule type="cellIs" dxfId="404" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="685" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="403" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="692" operator="equal">
       <formula>$I242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J196">
-    <cfRule type="cellIs" dxfId="402" priority="688" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="698" operator="equal">
       <formula>$J74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L196">
-    <cfRule type="cellIs" dxfId="401" priority="692" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="702" operator="equal">
       <formula>$L74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M196">
-    <cfRule type="cellIs" dxfId="400" priority="695" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="705" operator="equal">
       <formula>$M74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 B3">
-    <cfRule type="cellIs" dxfId="399" priority="724" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="734" operator="equal">
       <formula>$I195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="398" priority="726" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="736" operator="equal">
       <formula>$J195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="397" priority="727" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="737" operator="equal">
       <formula>$L195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="396" priority="728" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="738" operator="equal">
       <formula>$M195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="395" priority="731" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="741" operator="equal">
       <formula>$I242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75">
-    <cfRule type="cellIs" dxfId="394" priority="737" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="747" operator="equal">
       <formula>$J242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75">
-    <cfRule type="cellIs" dxfId="393" priority="741" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="751" operator="equal">
       <formula>$L242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75">
-    <cfRule type="cellIs" dxfId="392" priority="744" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="754" operator="equal">
       <formula>$M242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196 I196">
-    <cfRule type="cellIs" dxfId="391" priority="787" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="797" operator="equal">
       <formula>$I74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I243 B243">
-    <cfRule type="cellIs" dxfId="390" priority="790" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="800" operator="equal">
       <formula>$I82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J243">
-    <cfRule type="cellIs" dxfId="389" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="806" operator="equal">
       <formula>$J82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L243">
-    <cfRule type="cellIs" dxfId="388" priority="799" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="809" operator="equal">
       <formula>$L82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M243">
-    <cfRule type="cellIs" dxfId="387" priority="802" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="812" operator="equal">
       <formula>$M82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I156 B156">
-    <cfRule type="cellIs" dxfId="386" priority="807" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="817" operator="equal">
       <formula>$I75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J156">
-    <cfRule type="cellIs" dxfId="385" priority="809" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="819" operator="equal">
       <formula>$J75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L156">
-    <cfRule type="cellIs" dxfId="384" priority="810" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="820" operator="equal">
       <formula>$L75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156">
-    <cfRule type="cellIs" dxfId="383" priority="811" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="821" operator="equal">
       <formula>$M75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265 B265">
-    <cfRule type="cellIs" dxfId="382" priority="814" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="824" operator="equal">
       <formula>$I248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J265">
-    <cfRule type="cellIs" dxfId="381" priority="820" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="830" operator="equal">
       <formula>$J248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L265">
-    <cfRule type="cellIs" dxfId="380" priority="823" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="833" operator="equal">
       <formula>$L248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M265">
-    <cfRule type="cellIs" dxfId="379" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="836" operator="equal">
       <formula>$M248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84 B84">
-    <cfRule type="cellIs" dxfId="378" priority="859" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="869" operator="equal">
       <formula>$I259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
-    <cfRule type="cellIs" dxfId="377" priority="869" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="879" operator="equal">
       <formula>$J259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L84">
-    <cfRule type="cellIs" dxfId="376" priority="875" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="885" operator="equal">
       <formula>$L259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84">
-    <cfRule type="cellIs" dxfId="375" priority="881" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="891" operator="equal">
       <formula>$M259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I157 B157">
-    <cfRule type="cellIs" dxfId="374" priority="907" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="917" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J157">
-    <cfRule type="cellIs" dxfId="373" priority="909" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="919" operator="equal">
       <formula>$J144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L157">
-    <cfRule type="cellIs" dxfId="372" priority="910" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="920" operator="equal">
       <formula>$L144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="cellIs" dxfId="371" priority="911" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="921" operator="equal">
       <formula>$M144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32 B32">
-    <cfRule type="cellIs" dxfId="370" priority="920" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="930" operator="equal">
       <formula>$I264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="369" priority="922" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="932" operator="equal">
       <formula>$J264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="368" priority="923" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="933" operator="equal">
       <formula>$L264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="cellIs" dxfId="367" priority="924" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="934" operator="equal">
       <formula>$M264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I249 B249">
-    <cfRule type="cellIs" dxfId="366" priority="927" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="937" operator="equal">
       <formula>$I265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249">
-    <cfRule type="cellIs" dxfId="365" priority="929" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="939" operator="equal">
       <formula>$J265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L249">
-    <cfRule type="cellIs" dxfId="364" priority="930" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="940" operator="equal">
       <formula>$L265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M249">
-    <cfRule type="cellIs" dxfId="363" priority="931" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="941" operator="equal">
       <formula>$M265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I188:I189 B188:B189">
-    <cfRule type="cellIs" dxfId="362" priority="952" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="962" operator="equal">
       <formula>$I179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I180 B180">
-    <cfRule type="cellIs" dxfId="361" priority="953" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="963" operator="equal">
       <formula>$I188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J188:J189">
-    <cfRule type="cellIs" dxfId="360" priority="958" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="968" operator="equal">
       <formula>$J179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J180">
-    <cfRule type="cellIs" dxfId="359" priority="959" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="969" operator="equal">
       <formula>$J188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L188:L189">
-    <cfRule type="cellIs" dxfId="358" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="971" operator="equal">
       <formula>$L179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L180">
-    <cfRule type="cellIs" dxfId="357" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="972" operator="equal">
       <formula>$L188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M188:M189">
-    <cfRule type="cellIs" dxfId="356" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="974" operator="equal">
       <formula>$M179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M180">
-    <cfRule type="cellIs" dxfId="355" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="975" operator="equal">
       <formula>$M188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191:K195 K244:K248 K123:K140 K250:K259 K142:K144 K261:K264 K333:K336 K309:K314 K4:K10 K17:K31 K267:K297 K33:K74 K147:K148 K97:K103 K106:K121 K186:K187 K173:K179 K158:K171 K151:K155 K181:K184 K85:K95 K197:K217 K77:K82 K220:K236 K239:K242">
-    <cfRule type="cellIs" dxfId="354" priority="969" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="979" operator="equal">
       <formula>$K3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K122">
-    <cfRule type="cellIs" dxfId="353" priority="984" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="994" operator="equal">
       <formula>$K95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K96">
-    <cfRule type="cellIs" dxfId="352" priority="985" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="995" operator="equal">
       <formula>$K140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K141">
-    <cfRule type="cellIs" dxfId="351" priority="986" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="996" operator="equal">
       <formula>$K121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K260">
-    <cfRule type="cellIs" dxfId="350" priority="987" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="997" operator="equal">
       <formula>$K31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K190">
-    <cfRule type="cellIs" dxfId="349" priority="988" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="998" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196">
-    <cfRule type="cellIs" dxfId="348" priority="989" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="999" operator="equal">
       <formula>$K74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="347" priority="990" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="1000" operator="equal">
       <formula>$K195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="cellIs" dxfId="346" priority="991" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="1001" operator="equal">
       <formula>$K242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K243">
-    <cfRule type="cellIs" dxfId="345" priority="992" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="1002" operator="equal">
       <formula>$K82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156">
-    <cfRule type="cellIs" dxfId="344" priority="993" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="1003" operator="equal">
       <formula>$K75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K265">
-    <cfRule type="cellIs" dxfId="343" priority="994" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="1004" operator="equal">
       <formula>$K248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K84">
-    <cfRule type="cellIs" dxfId="342" priority="996" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="1006" operator="equal">
       <formula>$K259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="341" priority="998" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="1008" operator="equal">
       <formula>$K264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K249">
-    <cfRule type="cellIs" dxfId="340" priority="999" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="1009" operator="equal">
       <formula>$K265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K188:K189">
-    <cfRule type="cellIs" dxfId="339" priority="1001" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="1011" operator="equal">
       <formula>$K179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K180">
-    <cfRule type="cellIs" dxfId="338" priority="1002" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="1012" operator="equal">
       <formula>$K188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:S74 S4:S10 S148 S106:S144 S186:S189 S157:S171 S153:S155 S173:S184 S85:S104 S191:S217 S77:S83 S220:S236 S239:S265">
-    <cfRule type="cellIs" dxfId="337" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="599" operator="equal">
       <formula>$S3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I266">
-    <cfRule type="cellIs" dxfId="336" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="598" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I267">
-    <cfRule type="cellIs" dxfId="335" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="597" operator="equal">
       <formula>$I266</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I315">
-    <cfRule type="cellIs" dxfId="334" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="590" operator="equal">
       <formula>$I314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J315">
-    <cfRule type="cellIs" dxfId="333" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="589" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L315">
-    <cfRule type="cellIs" dxfId="332" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="588" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M315">
-    <cfRule type="cellIs" dxfId="331" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="587" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K315">
-    <cfRule type="cellIs" dxfId="330" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="591" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I332">
-    <cfRule type="cellIs" dxfId="329" priority="1003" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="1013" operator="equal">
       <formula>$I314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J332">
-    <cfRule type="cellIs" dxfId="328" priority="1004" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="1014" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L332">
-    <cfRule type="cellIs" dxfId="327" priority="1005" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="1015" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M332">
-    <cfRule type="cellIs" dxfId="326" priority="1006" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="1016" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K332">
-    <cfRule type="cellIs" dxfId="325" priority="1007" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="1017" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I316">
+    <cfRule type="cellIs" dxfId="334" priority="585" operator="equal">
+      <formula>$I315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J316">
+    <cfRule type="cellIs" dxfId="333" priority="584" operator="equal">
+      <formula>$J315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L316">
+    <cfRule type="cellIs" dxfId="332" priority="583" operator="equal">
+      <formula>$L315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M316">
+    <cfRule type="cellIs" dxfId="331" priority="582" operator="equal">
+      <formula>$M315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K316">
+    <cfRule type="cellIs" dxfId="330" priority="586" operator="equal">
+      <formula>$K315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I326">
+    <cfRule type="cellIs" dxfId="329" priority="580" operator="equal">
+      <formula>$I316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J326">
+    <cfRule type="cellIs" dxfId="328" priority="579" operator="equal">
+      <formula>$J316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L326">
+    <cfRule type="cellIs" dxfId="327" priority="578" operator="equal">
+      <formula>$L316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M326">
+    <cfRule type="cellIs" dxfId="326" priority="577" operator="equal">
+      <formula>$M316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K326">
+    <cfRule type="cellIs" dxfId="325" priority="581" operator="equal">
+      <formula>$K316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I317 I105 I185 B185 B152 I219 B104:B105 B218:B219 I238 B238">
     <cfRule type="cellIs" dxfId="324" priority="575" operator="equal">
-      <formula>$I315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J316">
+      <formula>$I102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J317 J105 J185 J219 J238">
     <cfRule type="cellIs" dxfId="323" priority="574" operator="equal">
-      <formula>$J315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L316">
+      <formula>$J103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L317 L105 L185 L219 L238">
     <cfRule type="cellIs" dxfId="322" priority="573" operator="equal">
-      <formula>$L315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M316">
+      <formula>$L103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M317 M105 M185 M219 M238">
     <cfRule type="cellIs" dxfId="321" priority="572" operator="equal">
-      <formula>$M315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K316">
+      <formula>$M103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K317 K105 K185 K219 K238">
     <cfRule type="cellIs" dxfId="320" priority="576" operator="equal">
-      <formula>$K315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I326">
+      <formula>$K103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I323 I16 B16">
     <cfRule type="cellIs" dxfId="319" priority="570" operator="equal">
+      <formula>$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J323 J16">
+    <cfRule type="cellIs" dxfId="318" priority="569" operator="equal">
+      <formula>$J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L323 L16">
+    <cfRule type="cellIs" dxfId="317" priority="568" operator="equal">
+      <formula>$L10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M323 M16">
+    <cfRule type="cellIs" dxfId="316" priority="567" operator="equal">
+      <formula>$M10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K323 K16">
+    <cfRule type="cellIs" dxfId="315" priority="571" operator="equal">
+      <formula>$K10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I324">
+    <cfRule type="cellIs" dxfId="314" priority="565" operator="equal">
+      <formula>$I323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J324">
+    <cfRule type="cellIs" dxfId="313" priority="564" operator="equal">
+      <formula>$J323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L324">
+    <cfRule type="cellIs" dxfId="312" priority="563" operator="equal">
+      <formula>$L323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M324">
+    <cfRule type="cellIs" dxfId="311" priority="562" operator="equal">
+      <formula>$M323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K324">
+    <cfRule type="cellIs" dxfId="310" priority="566" operator="equal">
+      <formula>$K323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I325">
+    <cfRule type="cellIs" dxfId="309" priority="560" operator="equal">
+      <formula>$I323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J325">
+    <cfRule type="cellIs" dxfId="308" priority="559" operator="equal">
+      <formula>$J323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L325">
+    <cfRule type="cellIs" dxfId="307" priority="558" operator="equal">
+      <formula>$L323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M325">
+    <cfRule type="cellIs" dxfId="306" priority="557" operator="equal">
+      <formula>$M323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K325">
+    <cfRule type="cellIs" dxfId="305" priority="561" operator="equal">
+      <formula>$K323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I318">
+    <cfRule type="cellIs" dxfId="304" priority="555" operator="equal">
+      <formula>$I314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J318">
+    <cfRule type="cellIs" dxfId="303" priority="554" operator="equal">
+      <formula>$J314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L318">
+    <cfRule type="cellIs" dxfId="302" priority="553" operator="equal">
+      <formula>$L314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M318">
+    <cfRule type="cellIs" dxfId="301" priority="552" operator="equal">
+      <formula>$M314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K318">
+    <cfRule type="cellIs" dxfId="300" priority="556" operator="equal">
+      <formula>$K314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I319">
+    <cfRule type="cellIs" dxfId="299" priority="550" operator="equal">
+      <formula>$I318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J319">
+    <cfRule type="cellIs" dxfId="298" priority="549" operator="equal">
+      <formula>$J318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L319">
+    <cfRule type="cellIs" dxfId="297" priority="548" operator="equal">
+      <formula>$L318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M319">
+    <cfRule type="cellIs" dxfId="296" priority="547" operator="equal">
+      <formula>$M318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K319">
+    <cfRule type="cellIs" dxfId="295" priority="551" operator="equal">
+      <formula>$K318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I320">
+    <cfRule type="cellIs" dxfId="294" priority="545" operator="equal">
+      <formula>$I318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J320">
+    <cfRule type="cellIs" dxfId="293" priority="544" operator="equal">
+      <formula>$J318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L320">
+    <cfRule type="cellIs" dxfId="292" priority="543" operator="equal">
+      <formula>$L318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M320">
+    <cfRule type="cellIs" dxfId="291" priority="542" operator="equal">
+      <formula>$M318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K320">
+    <cfRule type="cellIs" dxfId="290" priority="546" operator="equal">
+      <formula>$K318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I321">
+    <cfRule type="cellIs" dxfId="289" priority="540" operator="equal">
+      <formula>$I320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J321">
+    <cfRule type="cellIs" dxfId="288" priority="539" operator="equal">
+      <formula>$J320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L321">
+    <cfRule type="cellIs" dxfId="287" priority="538" operator="equal">
+      <formula>$L320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M321">
+    <cfRule type="cellIs" dxfId="286" priority="537" operator="equal">
+      <formula>$M320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K321">
+    <cfRule type="cellIs" dxfId="285" priority="541" operator="equal">
+      <formula>$K320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I322">
+    <cfRule type="cellIs" dxfId="284" priority="535" operator="equal">
+      <formula>$I320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J322">
+    <cfRule type="cellIs" dxfId="283" priority="534" operator="equal">
+      <formula>$J320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L322">
+    <cfRule type="cellIs" dxfId="282" priority="533" operator="equal">
+      <formula>$L320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M322">
+    <cfRule type="cellIs" dxfId="281" priority="532" operator="equal">
+      <formula>$M320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K322">
+    <cfRule type="cellIs" dxfId="280" priority="536" operator="equal">
+      <formula>$K320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I327">
+    <cfRule type="cellIs" dxfId="279" priority="530" operator="equal">
+      <formula>$I317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J327">
+    <cfRule type="cellIs" dxfId="278" priority="529" operator="equal">
+      <formula>$J317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L327">
+    <cfRule type="cellIs" dxfId="277" priority="528" operator="equal">
+      <formula>$L317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M327">
+    <cfRule type="cellIs" dxfId="276" priority="527" operator="equal">
+      <formula>$M317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K327">
+    <cfRule type="cellIs" dxfId="275" priority="531" operator="equal">
+      <formula>$K317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I330">
+    <cfRule type="cellIs" dxfId="274" priority="525" operator="equal">
+      <formula>$I318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J330">
+    <cfRule type="cellIs" dxfId="273" priority="524" operator="equal">
+      <formula>$J318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L330">
+    <cfRule type="cellIs" dxfId="272" priority="523" operator="equal">
+      <formula>$L318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M330">
+    <cfRule type="cellIs" dxfId="271" priority="522" operator="equal">
+      <formula>$M318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K330">
+    <cfRule type="cellIs" dxfId="270" priority="526" operator="equal">
+      <formula>$K318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I331">
+    <cfRule type="cellIs" dxfId="269" priority="520" operator="equal">
+      <formula>$I319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J331">
+    <cfRule type="cellIs" dxfId="268" priority="519" operator="equal">
+      <formula>$J319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L331">
+    <cfRule type="cellIs" dxfId="267" priority="518" operator="equal">
+      <formula>$L319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M331">
+    <cfRule type="cellIs" dxfId="266" priority="517" operator="equal">
+      <formula>$M319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K331">
+    <cfRule type="cellIs" dxfId="265" priority="521" operator="equal">
+      <formula>$K319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I328">
+    <cfRule type="cellIs" dxfId="264" priority="515" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J326">
-    <cfRule type="cellIs" dxfId="318" priority="569" operator="equal">
+  <conditionalFormatting sqref="J328">
+    <cfRule type="cellIs" dxfId="263" priority="514" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L326">
-    <cfRule type="cellIs" dxfId="317" priority="568" operator="equal">
+  <conditionalFormatting sqref="L328">
+    <cfRule type="cellIs" dxfId="262" priority="513" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M326">
-    <cfRule type="cellIs" dxfId="316" priority="567" operator="equal">
+  <conditionalFormatting sqref="M328">
+    <cfRule type="cellIs" dxfId="261" priority="512" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K326">
-    <cfRule type="cellIs" dxfId="315" priority="571" operator="equal">
+  <conditionalFormatting sqref="K328">
+    <cfRule type="cellIs" dxfId="260" priority="516" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I317 I105 I185 B185 B152 I219 B104:B105 B218:B219 I238 B238">
-    <cfRule type="cellIs" dxfId="314" priority="565" operator="equal">
-      <formula>$I102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J317 J105 J185 J219 J238">
-    <cfRule type="cellIs" dxfId="313" priority="564" operator="equal">
-      <formula>$J103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L317 L105 L185 L219 L238">
-    <cfRule type="cellIs" dxfId="312" priority="563" operator="equal">
-      <formula>$L103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M317 M105 M185 M219 M238">
-    <cfRule type="cellIs" dxfId="311" priority="562" operator="equal">
-      <formula>$M103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K317 K105 K185 K219 K238">
-    <cfRule type="cellIs" dxfId="310" priority="566" operator="equal">
-      <formula>$K103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I323 I16 B16">
-    <cfRule type="cellIs" dxfId="309" priority="560" operator="equal">
-      <formula>$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J323 J16">
-    <cfRule type="cellIs" dxfId="308" priority="559" operator="equal">
-      <formula>$J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L323 L16">
-    <cfRule type="cellIs" dxfId="307" priority="558" operator="equal">
-      <formula>$L10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M323 M16">
-    <cfRule type="cellIs" dxfId="306" priority="557" operator="equal">
-      <formula>$M10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K323 K16">
-    <cfRule type="cellIs" dxfId="305" priority="561" operator="equal">
-      <formula>$K10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I324">
-    <cfRule type="cellIs" dxfId="304" priority="555" operator="equal">
-      <formula>$I323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J324">
-    <cfRule type="cellIs" dxfId="303" priority="554" operator="equal">
-      <formula>$J323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L324">
-    <cfRule type="cellIs" dxfId="302" priority="553" operator="equal">
-      <formula>$L323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M324">
-    <cfRule type="cellIs" dxfId="301" priority="552" operator="equal">
-      <formula>$M323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K324">
-    <cfRule type="cellIs" dxfId="300" priority="556" operator="equal">
-      <formula>$K323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I325">
-    <cfRule type="cellIs" dxfId="299" priority="550" operator="equal">
-      <formula>$I323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J325">
-    <cfRule type="cellIs" dxfId="298" priority="549" operator="equal">
-      <formula>$J323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L325">
-    <cfRule type="cellIs" dxfId="297" priority="548" operator="equal">
-      <formula>$L323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M325">
-    <cfRule type="cellIs" dxfId="296" priority="547" operator="equal">
-      <formula>$M323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K325">
-    <cfRule type="cellIs" dxfId="295" priority="551" operator="equal">
-      <formula>$K323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I318">
-    <cfRule type="cellIs" dxfId="294" priority="545" operator="equal">
-      <formula>$I314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J318">
-    <cfRule type="cellIs" dxfId="293" priority="544" operator="equal">
-      <formula>$J314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L318">
-    <cfRule type="cellIs" dxfId="292" priority="543" operator="equal">
-      <formula>$L314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M318">
-    <cfRule type="cellIs" dxfId="291" priority="542" operator="equal">
-      <formula>$M314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K318">
-    <cfRule type="cellIs" dxfId="290" priority="546" operator="equal">
-      <formula>$K314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I319">
-    <cfRule type="cellIs" dxfId="289" priority="540" operator="equal">
-      <formula>$I318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J319">
-    <cfRule type="cellIs" dxfId="288" priority="539" operator="equal">
-      <formula>$J318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L319">
-    <cfRule type="cellIs" dxfId="287" priority="538" operator="equal">
-      <formula>$L318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M319">
-    <cfRule type="cellIs" dxfId="286" priority="537" operator="equal">
-      <formula>$M318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K319">
-    <cfRule type="cellIs" dxfId="285" priority="541" operator="equal">
-      <formula>$K318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I320">
-    <cfRule type="cellIs" dxfId="284" priority="535" operator="equal">
-      <formula>$I318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J320">
-    <cfRule type="cellIs" dxfId="283" priority="534" operator="equal">
-      <formula>$J318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L320">
-    <cfRule type="cellIs" dxfId="282" priority="533" operator="equal">
-      <formula>$L318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M320">
-    <cfRule type="cellIs" dxfId="281" priority="532" operator="equal">
-      <formula>$M318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K320">
-    <cfRule type="cellIs" dxfId="280" priority="536" operator="equal">
-      <formula>$K318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I321">
-    <cfRule type="cellIs" dxfId="279" priority="530" operator="equal">
-      <formula>$I320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J321">
-    <cfRule type="cellIs" dxfId="278" priority="529" operator="equal">
-      <formula>$J320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L321">
-    <cfRule type="cellIs" dxfId="277" priority="528" operator="equal">
-      <formula>$L320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M321">
-    <cfRule type="cellIs" dxfId="276" priority="527" operator="equal">
-      <formula>$M320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K321">
-    <cfRule type="cellIs" dxfId="275" priority="531" operator="equal">
-      <formula>$K320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I322">
-    <cfRule type="cellIs" dxfId="274" priority="525" operator="equal">
-      <formula>$I320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J322">
-    <cfRule type="cellIs" dxfId="273" priority="524" operator="equal">
-      <formula>$J320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L322">
-    <cfRule type="cellIs" dxfId="272" priority="523" operator="equal">
-      <formula>$L320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M322">
-    <cfRule type="cellIs" dxfId="271" priority="522" operator="equal">
-      <formula>$M320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K322">
-    <cfRule type="cellIs" dxfId="270" priority="526" operator="equal">
-      <formula>$K320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I327">
-    <cfRule type="cellIs" dxfId="269" priority="520" operator="equal">
+  <conditionalFormatting sqref="I329">
+    <cfRule type="cellIs" dxfId="259" priority="510" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J327">
-    <cfRule type="cellIs" dxfId="268" priority="519" operator="equal">
+  <conditionalFormatting sqref="J329">
+    <cfRule type="cellIs" dxfId="258" priority="509" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L327">
-    <cfRule type="cellIs" dxfId="267" priority="518" operator="equal">
+  <conditionalFormatting sqref="L329">
+    <cfRule type="cellIs" dxfId="257" priority="508" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M327">
-    <cfRule type="cellIs" dxfId="266" priority="517" operator="equal">
+  <conditionalFormatting sqref="M329">
+    <cfRule type="cellIs" dxfId="256" priority="507" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K327">
-    <cfRule type="cellIs" dxfId="265" priority="521" operator="equal">
+  <conditionalFormatting sqref="K329">
+    <cfRule type="cellIs" dxfId="255" priority="511" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I330">
-    <cfRule type="cellIs" dxfId="264" priority="515" operator="equal">
-      <formula>$I318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J330">
-    <cfRule type="cellIs" dxfId="263" priority="514" operator="equal">
-      <formula>$J318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L330">
-    <cfRule type="cellIs" dxfId="262" priority="513" operator="equal">
-      <formula>$L318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M330">
-    <cfRule type="cellIs" dxfId="261" priority="512" operator="equal">
-      <formula>$M318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K330">
-    <cfRule type="cellIs" dxfId="260" priority="516" operator="equal">
-      <formula>$K318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I331">
-    <cfRule type="cellIs" dxfId="259" priority="510" operator="equal">
-      <formula>$I319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J331">
-    <cfRule type="cellIs" dxfId="258" priority="509" operator="equal">
-      <formula>$J319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L331">
-    <cfRule type="cellIs" dxfId="257" priority="508" operator="equal">
-      <formula>$L319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M331">
-    <cfRule type="cellIs" dxfId="256" priority="507" operator="equal">
-      <formula>$M319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K331">
-    <cfRule type="cellIs" dxfId="255" priority="511" operator="equal">
-      <formula>$K319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I328">
-    <cfRule type="cellIs" dxfId="254" priority="505" operator="equal">
-      <formula>$I316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J328">
-    <cfRule type="cellIs" dxfId="253" priority="504" operator="equal">
-      <formula>$J316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L328">
-    <cfRule type="cellIs" dxfId="252" priority="503" operator="equal">
-      <formula>$L316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M328">
-    <cfRule type="cellIs" dxfId="251" priority="502" operator="equal">
-      <formula>$M316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K328">
+  <conditionalFormatting sqref="I307:I308">
+    <cfRule type="cellIs" dxfId="254" priority="502" operator="equal">
+      <formula>$I296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J307:J308">
+    <cfRule type="cellIs" dxfId="253" priority="503" operator="equal">
+      <formula>$J296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L307:L308">
+    <cfRule type="cellIs" dxfId="252" priority="504" operator="equal">
+      <formula>$L296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M307:M308">
+    <cfRule type="cellIs" dxfId="251" priority="505" operator="equal">
+      <formula>$M296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K307:K308">
     <cfRule type="cellIs" dxfId="250" priority="506" operator="equal">
-      <formula>$K316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I329">
+      <formula>$K296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I306">
     <cfRule type="cellIs" dxfId="249" priority="500" operator="equal">
-      <formula>$I317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J329">
+      <formula>$I295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J306">
     <cfRule type="cellIs" dxfId="248" priority="499" operator="equal">
-      <formula>$J317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L329">
+      <formula>$J295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L306">
     <cfRule type="cellIs" dxfId="247" priority="498" operator="equal">
-      <formula>$L317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M329">
+      <formula>$L295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M306">
     <cfRule type="cellIs" dxfId="246" priority="497" operator="equal">
-      <formula>$M317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K329">
+      <formula>$M295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K306">
     <cfRule type="cellIs" dxfId="245" priority="501" operator="equal">
-      <formula>$K317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I307:I308">
+      <formula>$K295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I305">
     <cfRule type="cellIs" dxfId="244" priority="492" operator="equal">
+      <formula>$I294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J305">
+    <cfRule type="cellIs" dxfId="243" priority="493" operator="equal">
+      <formula>$J294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L305">
+    <cfRule type="cellIs" dxfId="242" priority="494" operator="equal">
+      <formula>$L294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M305">
+    <cfRule type="cellIs" dxfId="241" priority="495" operator="equal">
+      <formula>$M294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K305">
+    <cfRule type="cellIs" dxfId="240" priority="496" operator="equal">
+      <formula>$K294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I299">
+    <cfRule type="cellIs" dxfId="239" priority="490" operator="equal">
+      <formula>$I293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J299">
+    <cfRule type="cellIs" dxfId="238" priority="489" operator="equal">
+      <formula>$J293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L299">
+    <cfRule type="cellIs" dxfId="237" priority="488" operator="equal">
+      <formula>$L293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M299">
+    <cfRule type="cellIs" dxfId="236" priority="487" operator="equal">
+      <formula>$M293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K299">
+    <cfRule type="cellIs" dxfId="235" priority="491" operator="equal">
+      <formula>$K293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K300">
+    <cfRule type="cellIs" dxfId="234" priority="481" operator="equal">
+      <formula>$K294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I300">
+    <cfRule type="cellIs" dxfId="233" priority="480" operator="equal">
+      <formula>$I294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J300">
+    <cfRule type="cellIs" dxfId="232" priority="479" operator="equal">
+      <formula>$J294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L300">
+    <cfRule type="cellIs" dxfId="231" priority="478" operator="equal">
+      <formula>$L294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M300">
+    <cfRule type="cellIs" dxfId="230" priority="477" operator="equal">
+      <formula>$M294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I301">
+    <cfRule type="cellIs" dxfId="229" priority="475" operator="equal">
+      <formula>$I295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J301">
+    <cfRule type="cellIs" dxfId="228" priority="474" operator="equal">
+      <formula>$J295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L301">
+    <cfRule type="cellIs" dxfId="227" priority="473" operator="equal">
+      <formula>$L295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M301">
+    <cfRule type="cellIs" dxfId="226" priority="472" operator="equal">
+      <formula>$M295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K301">
+    <cfRule type="cellIs" dxfId="225" priority="476" operator="equal">
+      <formula>$K295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I302">
+    <cfRule type="cellIs" dxfId="224" priority="470" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J307:J308">
-    <cfRule type="cellIs" dxfId="243" priority="493" operator="equal">
+  <conditionalFormatting sqref="J302">
+    <cfRule type="cellIs" dxfId="223" priority="469" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L307:L308">
-    <cfRule type="cellIs" dxfId="242" priority="494" operator="equal">
+  <conditionalFormatting sqref="L302">
+    <cfRule type="cellIs" dxfId="222" priority="468" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M307:M308">
-    <cfRule type="cellIs" dxfId="241" priority="495" operator="equal">
+  <conditionalFormatting sqref="M302">
+    <cfRule type="cellIs" dxfId="221" priority="467" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K307:K308">
-    <cfRule type="cellIs" dxfId="240" priority="496" operator="equal">
+  <conditionalFormatting sqref="K302">
+    <cfRule type="cellIs" dxfId="220" priority="471" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I306">
-    <cfRule type="cellIs" dxfId="239" priority="490" operator="equal">
-      <formula>$I295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J306">
-    <cfRule type="cellIs" dxfId="238" priority="489" operator="equal">
-      <formula>$J295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L306">
-    <cfRule type="cellIs" dxfId="237" priority="488" operator="equal">
-      <formula>$L295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M306">
-    <cfRule type="cellIs" dxfId="236" priority="487" operator="equal">
-      <formula>$M295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K306">
-    <cfRule type="cellIs" dxfId="235" priority="491" operator="equal">
-      <formula>$K295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I305">
-    <cfRule type="cellIs" dxfId="234" priority="482" operator="equal">
-      <formula>$I294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J305">
-    <cfRule type="cellIs" dxfId="233" priority="483" operator="equal">
-      <formula>$J294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L305">
-    <cfRule type="cellIs" dxfId="232" priority="484" operator="equal">
-      <formula>$L294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M305">
-    <cfRule type="cellIs" dxfId="231" priority="485" operator="equal">
-      <formula>$M294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K305">
-    <cfRule type="cellIs" dxfId="230" priority="486" operator="equal">
-      <formula>$K294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I299">
-    <cfRule type="cellIs" dxfId="229" priority="480" operator="equal">
-      <formula>$I293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J299">
-    <cfRule type="cellIs" dxfId="228" priority="479" operator="equal">
-      <formula>$J293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L299">
-    <cfRule type="cellIs" dxfId="227" priority="478" operator="equal">
-      <formula>$L293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M299">
-    <cfRule type="cellIs" dxfId="226" priority="477" operator="equal">
-      <formula>$M293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K299">
-    <cfRule type="cellIs" dxfId="225" priority="481" operator="equal">
-      <formula>$K293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K300">
-    <cfRule type="cellIs" dxfId="224" priority="471" operator="equal">
-      <formula>$K294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I300">
-    <cfRule type="cellIs" dxfId="223" priority="470" operator="equal">
-      <formula>$I294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J300">
-    <cfRule type="cellIs" dxfId="222" priority="469" operator="equal">
-      <formula>$J294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L300">
-    <cfRule type="cellIs" dxfId="221" priority="468" operator="equal">
-      <formula>$L294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M300">
-    <cfRule type="cellIs" dxfId="220" priority="467" operator="equal">
-      <formula>$M294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I301">
+  <conditionalFormatting sqref="I304">
     <cfRule type="cellIs" dxfId="219" priority="465" operator="equal">
-      <formula>$I295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J301">
+      <formula>$I297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J304">
     <cfRule type="cellIs" dxfId="218" priority="464" operator="equal">
-      <formula>$J295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L301">
+      <formula>$J297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L304">
     <cfRule type="cellIs" dxfId="217" priority="463" operator="equal">
-      <formula>$L295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M301">
+      <formula>$L297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M304">
     <cfRule type="cellIs" dxfId="216" priority="462" operator="equal">
-      <formula>$M295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K301">
+      <formula>$M297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K304">
     <cfRule type="cellIs" dxfId="215" priority="466" operator="equal">
-      <formula>$K295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I302">
+      <formula>$K297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I303">
     <cfRule type="cellIs" dxfId="214" priority="460" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J302">
+  <conditionalFormatting sqref="J303">
     <cfRule type="cellIs" dxfId="213" priority="459" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L302">
+  <conditionalFormatting sqref="L303">
     <cfRule type="cellIs" dxfId="212" priority="458" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M302">
+  <conditionalFormatting sqref="M303">
     <cfRule type="cellIs" dxfId="211" priority="457" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K302">
+  <conditionalFormatting sqref="K303">
     <cfRule type="cellIs" dxfId="210" priority="461" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I304">
-    <cfRule type="cellIs" dxfId="209" priority="455" operator="equal">
+  <conditionalFormatting sqref="K298">
+    <cfRule type="cellIs" dxfId="209" priority="456" operator="equal">
+      <formula>$K297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L298">
+    <cfRule type="cellIs" dxfId="208" priority="455" operator="equal">
+      <formula>$L297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M298">
+    <cfRule type="cellIs" dxfId="207" priority="454" operator="equal">
+      <formula>$M297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J298">
+    <cfRule type="cellIs" dxfId="206" priority="453" operator="equal">
+      <formula>$J297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I298">
+    <cfRule type="cellIs" dxfId="205" priority="452" operator="equal">
       <formula>$I297</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J304">
-    <cfRule type="cellIs" dxfId="208" priority="454" operator="equal">
-      <formula>$J297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L304">
-    <cfRule type="cellIs" dxfId="207" priority="453" operator="equal">
-      <formula>$L297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M304">
-    <cfRule type="cellIs" dxfId="206" priority="452" operator="equal">
-      <formula>$M297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K304">
-    <cfRule type="cellIs" dxfId="205" priority="456" operator="equal">
-      <formula>$K297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I303">
-    <cfRule type="cellIs" dxfId="204" priority="450" operator="equal">
-      <formula>$I296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J303">
-    <cfRule type="cellIs" dxfId="203" priority="449" operator="equal">
-      <formula>$J296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L303">
-    <cfRule type="cellIs" dxfId="202" priority="448" operator="equal">
-      <formula>$L296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M303">
-    <cfRule type="cellIs" dxfId="201" priority="447" operator="equal">
-      <formula>$M296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K303">
-    <cfRule type="cellIs" dxfId="200" priority="451" operator="equal">
-      <formula>$K296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K298">
-    <cfRule type="cellIs" dxfId="199" priority="446" operator="equal">
-      <formula>$K297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L298">
-    <cfRule type="cellIs" dxfId="198" priority="445" operator="equal">
-      <formula>$L297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M298">
-    <cfRule type="cellIs" dxfId="197" priority="444" operator="equal">
-      <formula>$M297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J298">
-    <cfRule type="cellIs" dxfId="196" priority="443" operator="equal">
-      <formula>$J297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I298">
-    <cfRule type="cellIs" dxfId="195" priority="442" operator="equal">
-      <formula>$I297</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="S172">
-    <cfRule type="cellIs" dxfId="194" priority="1029" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="1039" operator="equal">
       <formula>$S167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I172 B172 B15">
-    <cfRule type="cellIs" dxfId="193" priority="1032" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="1042" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J172">
-    <cfRule type="cellIs" dxfId="192" priority="1034" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="1044" operator="equal">
       <formula>$J167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L172">
-    <cfRule type="cellIs" dxfId="191" priority="1035" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="1045" operator="equal">
       <formula>$L167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M172">
-    <cfRule type="cellIs" dxfId="190" priority="1036" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="1046" operator="equal">
       <formula>$M167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K172">
-    <cfRule type="cellIs" dxfId="189" priority="1037" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="1047" operator="equal">
       <formula>$K167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="188" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="444" operator="equal">
       <formula>$K9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="187" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="419" operator="equal">
       <formula>$M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
+    <cfRule type="cellIs" dxfId="196" priority="415" operator="equal">
+      <formula>$M12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="cellIs" dxfId="195" priority="414" operator="equal">
+      <formula>$M13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="cellIs" dxfId="194" priority="413" operator="equal">
+      <formula>$M14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12">
+    <cfRule type="cellIs" dxfId="193" priority="412" operator="equal">
+      <formula>$S10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13">
+    <cfRule type="cellIs" dxfId="192" priority="411" operator="equal">
+      <formula>$S12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14">
+    <cfRule type="cellIs" dxfId="191" priority="410" operator="equal">
+      <formula>$S13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S15">
+    <cfRule type="cellIs" dxfId="190" priority="409" operator="equal">
+      <formula>$S14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="cellIs" dxfId="189" priority="408" operator="equal">
+      <formula>$K12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="cellIs" dxfId="188" priority="407" operator="equal">
+      <formula>$K13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="cellIs" dxfId="187" priority="406" operator="equal">
+      <formula>$K14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
     <cfRule type="cellIs" dxfId="186" priority="405" operator="equal">
-      <formula>$M12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
+      <formula>$L10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
     <cfRule type="cellIs" dxfId="185" priority="404" operator="equal">
-      <formula>$M13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
+      <formula>$L12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
     <cfRule type="cellIs" dxfId="184" priority="403" operator="equal">
-      <formula>$M14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12">
+      <formula>$L13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
     <cfRule type="cellIs" dxfId="183" priority="402" operator="equal">
+      <formula>$L14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="182" priority="401" operator="equal">
+      <formula>$J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="181" priority="400" operator="equal">
+      <formula>$J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="180" priority="399" operator="equal">
+      <formula>$J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="179" priority="398" operator="equal">
+      <formula>$J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="178" priority="395" operator="equal">
+      <formula>$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="177" priority="394" operator="equal">
+      <formula>$I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="cellIs" dxfId="176" priority="393" operator="equal">
+      <formula>$I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="175" priority="392" operator="equal">
+      <formula>$I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="174" priority="391" operator="equal">
+      <formula>$I6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" dxfId="173" priority="390" operator="equal">
+      <formula>$I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="172" priority="389" operator="equal">
+      <formula>$I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J266">
+    <cfRule type="cellIs" dxfId="171" priority="1052" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L266">
+    <cfRule type="cellIs" dxfId="170" priority="1055" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M266">
+    <cfRule type="cellIs" dxfId="169" priority="1057" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K266">
+    <cfRule type="cellIs" dxfId="168" priority="1059" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K157">
+    <cfRule type="cellIs" dxfId="167" priority="1069" operator="equal">
+      <formula>$K144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S190">
+    <cfRule type="cellIs" dxfId="166" priority="1071" operator="equal">
+      <formula>$S144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S105 S185 S152 S219 S238">
+    <cfRule type="cellIs" dxfId="165" priority="1083" operator="equal">
+      <formula>$S103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B147">
+    <cfRule type="cellIs" dxfId="164" priority="342" operator="equal">
+      <formula>$I145</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I145">
+    <cfRule type="cellIs" dxfId="163" priority="340" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J145">
+    <cfRule type="cellIs" dxfId="162" priority="339" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K145">
+    <cfRule type="cellIs" dxfId="161" priority="341" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S145">
+    <cfRule type="cellIs" dxfId="160" priority="349" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S147">
+    <cfRule type="cellIs" dxfId="159" priority="350" operator="equal">
+      <formula>$S145</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S146">
+    <cfRule type="cellIs" dxfId="158" priority="337" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L145:L148">
+    <cfRule type="cellIs" dxfId="157" priority="335" operator="equal">
+      <formula>$L144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M145:M148">
+    <cfRule type="cellIs" dxfId="156" priority="334" operator="equal">
+      <formula>$M144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K145:K148">
+    <cfRule type="cellIs" dxfId="155" priority="336" operator="equal">
+      <formula>$K144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J147">
+    <cfRule type="cellIs" dxfId="154" priority="325" operator="equal">
+      <formula>$J146</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I146:I147">
+    <cfRule type="cellIs" dxfId="153" priority="333" operator="equal">
+      <formula>$I145</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J146:J147">
+    <cfRule type="cellIs" dxfId="152" priority="332" operator="equal">
+      <formula>$J145</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L145:L148">
+    <cfRule type="cellIs" dxfId="151" priority="331" operator="equal">
+      <formula>$L144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M145:M148">
+    <cfRule type="cellIs" dxfId="150" priority="330" operator="equal">
+      <formula>$M144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L145:L146">
+    <cfRule type="cellIs" dxfId="149" priority="329" operator="equal">
+      <formula>$L144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M145:M146">
+    <cfRule type="cellIs" dxfId="148" priority="328" operator="equal">
+      <formula>$M144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L145:L146">
+    <cfRule type="cellIs" dxfId="147" priority="327" operator="equal">
+      <formula>$L144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M145:M146">
+    <cfRule type="cellIs" dxfId="146" priority="326" operator="equal">
+      <formula>$M144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J145">
+    <cfRule type="cellIs" dxfId="145" priority="324" operator="equal">
+      <formula>$J144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J145">
+    <cfRule type="cellIs" dxfId="144" priority="323" operator="equal">
+      <formula>$J144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S156">
+    <cfRule type="cellIs" dxfId="143" priority="1087" operator="equal">
+      <formula>$S265</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B146">
+    <cfRule type="cellIs" dxfId="142" priority="1094" operator="equal">
+      <formula>$I3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I150">
+    <cfRule type="cellIs" dxfId="141" priority="253" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J150">
+    <cfRule type="cellIs" dxfId="140" priority="252" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K150">
+    <cfRule type="cellIs" dxfId="139" priority="254" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B150:B151">
+    <cfRule type="cellIs" dxfId="138" priority="251" operator="equal">
+      <formula>$I63</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S150">
+    <cfRule type="cellIs" dxfId="137" priority="262" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S151">
+    <cfRule type="cellIs" dxfId="136" priority="250" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J150">
+    <cfRule type="cellIs" dxfId="135" priority="246" operator="equal">
+      <formula>$J259</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J150">
+    <cfRule type="cellIs" dxfId="134" priority="245" operator="equal">
+      <formula>$J259</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L150">
+    <cfRule type="cellIs" dxfId="133" priority="264" operator="equal">
+      <formula>$L259</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M150">
+    <cfRule type="cellIs" dxfId="132" priority="265" operator="equal">
+      <formula>$M259</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K150">
+    <cfRule type="cellIs" dxfId="131" priority="266" operator="equal">
+      <formula>$K259</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S75">
+    <cfRule type="cellIs" dxfId="130" priority="1100" operator="equal">
+      <formula>$S74</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S84">
+    <cfRule type="cellIs" dxfId="129" priority="1122" operator="equal">
+      <formula>$S82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83">
+    <cfRule type="cellIs" dxfId="128" priority="184" operator="equal">
+      <formula>$I82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83">
+    <cfRule type="cellIs" dxfId="127" priority="183" operator="equal">
+      <formula>$J82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L83">
+    <cfRule type="cellIs" dxfId="126" priority="182" operator="equal">
+      <formula>$L82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M83">
+    <cfRule type="cellIs" dxfId="125" priority="181" operator="equal">
+      <formula>$M82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K83">
+    <cfRule type="cellIs" dxfId="124" priority="185" operator="equal">
+      <formula>$K82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="cellIs" dxfId="123" priority="1123" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B145">
+    <cfRule type="cellIs" dxfId="122" priority="1125" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2 B2">
+    <cfRule type="cellIs" dxfId="121" priority="158" operator="equal">
+      <formula>$I277</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B149">
+    <cfRule type="cellIs" dxfId="120" priority="1136" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S149">
+    <cfRule type="cellIs" dxfId="119" priority="1154" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I104">
+    <cfRule type="cellIs" dxfId="118" priority="156" operator="equal">
+      <formula>$I102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J104">
+    <cfRule type="cellIs" dxfId="117" priority="155" operator="equal">
+      <formula>$J102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L104">
+    <cfRule type="cellIs" dxfId="116" priority="154" operator="equal">
+      <formula>$L102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M104">
+    <cfRule type="cellIs" dxfId="115" priority="153" operator="equal">
+      <formula>$M102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K104">
+    <cfRule type="cellIs" dxfId="114" priority="157" operator="equal">
+      <formula>$K102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L149">
+    <cfRule type="cellIs" dxfId="113" priority="141" operator="equal">
+      <formula>$L148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L149">
+    <cfRule type="cellIs" dxfId="112" priority="140" operator="equal">
+      <formula>$L148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L149">
+    <cfRule type="cellIs" dxfId="111" priority="139" operator="equal">
+      <formula>$L148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K149">
+    <cfRule type="cellIs" dxfId="110" priority="136" operator="equal">
+      <formula>$K148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K149">
+    <cfRule type="cellIs" dxfId="109" priority="135" operator="equal">
+      <formula>$K148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J149">
+    <cfRule type="cellIs" dxfId="108" priority="133" operator="equal">
+      <formula>$J148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I149">
+    <cfRule type="cellIs" dxfId="107" priority="132" operator="equal">
+      <formula>$I148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I218">
+    <cfRule type="cellIs" dxfId="106" priority="127" operator="equal">
+      <formula>$I216</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J218">
+    <cfRule type="cellIs" dxfId="105" priority="126" operator="equal">
+      <formula>$J216</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L218">
+    <cfRule type="cellIs" dxfId="104" priority="125" operator="equal">
+      <formula>$L216</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M218">
+    <cfRule type="cellIs" dxfId="103" priority="124" operator="equal">
+      <formula>$M216</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K218">
+    <cfRule type="cellIs" dxfId="102" priority="128" operator="equal">
+      <formula>$K216</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S218">
+    <cfRule type="cellIs" dxfId="101" priority="129" operator="equal">
+      <formula>$S216</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76">
+    <cfRule type="cellIs" dxfId="100" priority="123" operator="equal">
+      <formula>$I157</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76">
+    <cfRule type="cellIs" dxfId="99" priority="1214" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76">
+    <cfRule type="cellIs" dxfId="98" priority="1216" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L76">
+    <cfRule type="cellIs" dxfId="97" priority="1218" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M76">
+    <cfRule type="cellIs" dxfId="96" priority="1220" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K76">
+    <cfRule type="cellIs" dxfId="95" priority="1227" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S76">
+    <cfRule type="cellIs" dxfId="94" priority="1229" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M147">
+    <cfRule type="cellIs" dxfId="93" priority="122" operator="equal">
+      <formula>$M146</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M147">
+    <cfRule type="cellIs" dxfId="92" priority="121" operator="equal">
+      <formula>$M146</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M148">
+    <cfRule type="cellIs" dxfId="91" priority="120" operator="equal">
+      <formula>$M147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M148">
+    <cfRule type="cellIs" dxfId="90" priority="119" operator="equal">
+      <formula>$M147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M149">
+    <cfRule type="cellIs" dxfId="89" priority="118" operator="equal">
+      <formula>$M148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M149">
+    <cfRule type="cellIs" dxfId="88" priority="117" operator="equal">
+      <formula>$M148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M149">
+    <cfRule type="cellIs" dxfId="87" priority="116" operator="equal">
+      <formula>$M148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M149">
+    <cfRule type="cellIs" dxfId="86" priority="115" operator="equal">
+      <formula>$M148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I237 B237">
+    <cfRule type="cellIs" dxfId="85" priority="109" operator="equal">
+      <formula>$I236</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J237">
+    <cfRule type="cellIs" dxfId="84" priority="108" operator="equal">
+      <formula>$J236</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L237">
+    <cfRule type="cellIs" dxfId="83" priority="107" operator="equal">
+      <formula>$L236</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M237">
+    <cfRule type="cellIs" dxfId="82" priority="106" operator="equal">
+      <formula>$M236</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K237">
+    <cfRule type="cellIs" dxfId="81" priority="110" operator="equal">
+      <formula>$K236</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S237">
+    <cfRule type="cellIs" dxfId="80" priority="105" operator="equal">
+      <formula>$S236</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M340:M359">
+    <cfRule type="cellIs" dxfId="79" priority="70" operator="equal">
+      <formula>$M339</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I337">
+    <cfRule type="cellIs" dxfId="78" priority="93" operator="equal">
+      <formula>$I336</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J337">
+    <cfRule type="cellIs" dxfId="77" priority="92" operator="equal">
+      <formula>$J336</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L337">
+    <cfRule type="cellIs" dxfId="76" priority="91" operator="equal">
+      <formula>$L336</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M337">
+    <cfRule type="cellIs" dxfId="75" priority="90" operator="equal">
+      <formula>$M336</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K337">
+    <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
+      <formula>$K336</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L338">
+    <cfRule type="cellIs" dxfId="73" priority="84" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M338">
+    <cfRule type="cellIs" dxfId="72" priority="83" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L340:L359">
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
+      <formula>$L339</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K340:K359">
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+      <formula>$K339</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I338">
+    <cfRule type="cellIs" dxfId="69" priority="86" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K338">
+    <cfRule type="cellIs" dxfId="68" priority="85" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I339">
+    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J339">
+    <cfRule type="cellIs" dxfId="66" priority="80" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L339">
+    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M339">
+    <cfRule type="cellIs" dxfId="64" priority="78" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K339">
+    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J340:J359">
+    <cfRule type="cellIs" dxfId="62" priority="72" operator="equal">
+      <formula>$J339</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M360">
+    <cfRule type="cellIs" dxfId="61" priority="66" operator="equal">
+      <formula>$M359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L360">
+    <cfRule type="cellIs" dxfId="60" priority="67" operator="equal">
+      <formula>$L359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K360">
+    <cfRule type="cellIs" dxfId="59" priority="69" operator="equal">
+      <formula>$K359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J360">
+    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
+      <formula>$J359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I364">
+    <cfRule type="cellIs" dxfId="57" priority="100" operator="equal">
+      <formula>$I359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J364">
+    <cfRule type="cellIs" dxfId="56" priority="101" operator="equal">
+      <formula>$J359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L364">
+    <cfRule type="cellIs" dxfId="55" priority="102" operator="equal">
+      <formula>$L359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M364">
+    <cfRule type="cellIs" dxfId="54" priority="103" operator="equal">
+      <formula>$M359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K364">
+    <cfRule type="cellIs" dxfId="53" priority="104" operator="equal">
+      <formula>$K359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M361">
+    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
+      <formula>$M360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L361">
+    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
+      <formula>$L360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K361">
+    <cfRule type="cellIs" dxfId="50" priority="65" operator="equal">
+      <formula>$K360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J361">
+    <cfRule type="cellIs" dxfId="49" priority="64" operator="equal">
+      <formula>$J360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M363">
+    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
+      <formula>$M361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L363">
+    <cfRule type="cellIs" dxfId="47" priority="59" operator="equal">
+      <formula>$L361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K363">
+    <cfRule type="cellIs" dxfId="46" priority="61" operator="equal">
+      <formula>$K361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J363">
+    <cfRule type="cellIs" dxfId="45" priority="60" operator="equal">
+      <formula>$J361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M362">
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
+      <formula>$M360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L362">
+    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
+      <formula>$L360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K362">
+    <cfRule type="cellIs" dxfId="42" priority="57" operator="equal">
+      <formula>$K360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J362">
+    <cfRule type="cellIs" dxfId="41" priority="56" operator="equal">
+      <formula>$J360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I340:I363">
+    <cfRule type="cellIs" dxfId="40" priority="53" operator="equal">
+      <formula>$I339</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J338">
+    <cfRule type="cellIs" dxfId="39" priority="1230" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J370">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+      <formula>$J377</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L370">
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
+      <formula>$L377</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K370">
+    <cfRule type="cellIs" dxfId="36" priority="47" operator="equal">
+      <formula>$K377</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S370">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+      <formula>$S369</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J372:J373">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+      <formula>$J371</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L372:L373">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+      <formula>$L371</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M372:M373">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+      <formula>$M371</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K372:K373">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
+      <formula>$K371</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J371">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>$J369</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L371">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+      <formula>$L369</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K371">
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+      <formula>$K369</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M366:M367">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+      <formula>$M365</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M368">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+      <formula>$M367</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I365">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I374:I375">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>$I373</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J374:J375">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>$J373</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L374:L375">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+      <formula>$L373</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M374:M375">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>$M373</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K374:K375">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+      <formula>$K373</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M370:M371">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>$M369</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16">
+    <cfRule type="cellIs" dxfId="16" priority="1233" operator="equal">
       <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S13">
-    <cfRule type="cellIs" dxfId="182" priority="401" operator="equal">
-      <formula>$S12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="181" priority="400" operator="equal">
-      <formula>$S13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="180" priority="399" operator="equal">
-      <formula>$S14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="179" priority="398" operator="equal">
-      <formula>$K12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="178" priority="397" operator="equal">
-      <formula>$K13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="177" priority="396" operator="equal">
-      <formula>$K14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="176" priority="395" operator="equal">
+  <conditionalFormatting sqref="B11 I11">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>$J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>$L10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="175" priority="394" operator="equal">
-      <formula>$L12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="174" priority="393" operator="equal">
-      <formula>$L13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="173" priority="392" operator="equal">
-      <formula>$L14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="172" priority="391" operator="equal">
-      <formula>$J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="171" priority="390" operator="equal">
-      <formula>$J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="170" priority="389" operator="equal">
-      <formula>$J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="169" priority="388" operator="equal">
-      <formula>$J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="168" priority="385" operator="equal">
-      <formula>$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="167" priority="384" operator="equal">
-      <formula>$I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="166" priority="383" operator="equal">
-      <formula>$I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="165" priority="382" operator="equal">
-      <formula>$I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="164" priority="381" operator="equal">
-      <formula>$I6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="163" priority="380" operator="equal">
-      <formula>$I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="162" priority="379" operator="equal">
-      <formula>$I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J266">
-    <cfRule type="cellIs" dxfId="161" priority="1042" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L266">
-    <cfRule type="cellIs" dxfId="160" priority="1045" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M266">
-    <cfRule type="cellIs" dxfId="159" priority="1047" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K266">
-    <cfRule type="cellIs" dxfId="158" priority="1049" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K157">
-    <cfRule type="cellIs" dxfId="157" priority="1059" operator="equal">
-      <formula>$K144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S190">
-    <cfRule type="cellIs" dxfId="156" priority="1061" operator="equal">
-      <formula>$S144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S105 S185 S152 S219 S238">
-    <cfRule type="cellIs" dxfId="155" priority="1073" operator="equal">
-      <formula>$S103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B147">
-    <cfRule type="cellIs" dxfId="154" priority="332" operator="equal">
-      <formula>$I145</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I145">
-    <cfRule type="cellIs" dxfId="153" priority="330" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J145">
-    <cfRule type="cellIs" dxfId="152" priority="329" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K145">
-    <cfRule type="cellIs" dxfId="151" priority="331" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S145">
-    <cfRule type="cellIs" dxfId="150" priority="339" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S147">
-    <cfRule type="cellIs" dxfId="149" priority="340" operator="equal">
-      <formula>$S145</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S146">
-    <cfRule type="cellIs" dxfId="148" priority="327" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L145:L148">
-    <cfRule type="cellIs" dxfId="147" priority="325" operator="equal">
-      <formula>$L144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M145:M148">
-    <cfRule type="cellIs" dxfId="146" priority="324" operator="equal">
-      <formula>$M144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K145:K148">
-    <cfRule type="cellIs" dxfId="145" priority="326" operator="equal">
-      <formula>$K144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J147">
-    <cfRule type="cellIs" dxfId="144" priority="315" operator="equal">
-      <formula>$J146</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I146:I147">
-    <cfRule type="cellIs" dxfId="143" priority="323" operator="equal">
-      <formula>$I145</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J146:J147">
-    <cfRule type="cellIs" dxfId="142" priority="322" operator="equal">
-      <formula>$J145</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L145:L148">
-    <cfRule type="cellIs" dxfId="141" priority="321" operator="equal">
-      <formula>$L144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M145:M148">
-    <cfRule type="cellIs" dxfId="140" priority="320" operator="equal">
-      <formula>$M144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L145:L146">
-    <cfRule type="cellIs" dxfId="139" priority="319" operator="equal">
-      <formula>$L144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M145:M146">
-    <cfRule type="cellIs" dxfId="138" priority="318" operator="equal">
-      <formula>$M144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L145:L146">
-    <cfRule type="cellIs" dxfId="137" priority="317" operator="equal">
-      <formula>$L144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M145:M146">
-    <cfRule type="cellIs" dxfId="136" priority="316" operator="equal">
-      <formula>$M144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J145">
-    <cfRule type="cellIs" dxfId="135" priority="314" operator="equal">
-      <formula>$J144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J145">
-    <cfRule type="cellIs" dxfId="134" priority="313" operator="equal">
-      <formula>$J144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S156">
-    <cfRule type="cellIs" dxfId="133" priority="1077" operator="equal">
-      <formula>$S265</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B146">
-    <cfRule type="cellIs" dxfId="132" priority="1084" operator="equal">
-      <formula>$I3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I150">
-    <cfRule type="cellIs" dxfId="131" priority="243" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="130" priority="242" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K150">
-    <cfRule type="cellIs" dxfId="129" priority="244" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B150:B151">
-    <cfRule type="cellIs" dxfId="128" priority="241" operator="equal">
-      <formula>$I63</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S150">
-    <cfRule type="cellIs" dxfId="127" priority="252" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S151">
-    <cfRule type="cellIs" dxfId="126" priority="240" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="125" priority="236" operator="equal">
-      <formula>$J259</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="124" priority="235" operator="equal">
-      <formula>$J259</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L150">
-    <cfRule type="cellIs" dxfId="123" priority="254" operator="equal">
-      <formula>$L259</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M150">
-    <cfRule type="cellIs" dxfId="122" priority="255" operator="equal">
-      <formula>$M259</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K150">
-    <cfRule type="cellIs" dxfId="121" priority="256" operator="equal">
-      <formula>$K259</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S75">
-    <cfRule type="cellIs" dxfId="120" priority="1090" operator="equal">
-      <formula>$S74</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S84">
-    <cfRule type="cellIs" dxfId="119" priority="1112" operator="equal">
-      <formula>$S82</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="118" priority="174" operator="equal">
-      <formula>$I82</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83">
-    <cfRule type="cellIs" dxfId="117" priority="173" operator="equal">
-      <formula>$J82</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L83">
-    <cfRule type="cellIs" dxfId="116" priority="172" operator="equal">
-      <formula>$L82</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="115" priority="171" operator="equal">
-      <formula>$M82</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K83">
-    <cfRule type="cellIs" dxfId="114" priority="175" operator="equal">
-      <formula>$K82</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="113" priority="1113" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="112" priority="1115" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2 B2">
-    <cfRule type="cellIs" dxfId="111" priority="148" operator="equal">
-      <formula>$I277</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B149">
-    <cfRule type="cellIs" dxfId="110" priority="1126" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S149">
-    <cfRule type="cellIs" dxfId="109" priority="1144" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="108" priority="146" operator="equal">
-      <formula>$I102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J104">
-    <cfRule type="cellIs" dxfId="107" priority="145" operator="equal">
-      <formula>$J102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L104">
-    <cfRule type="cellIs" dxfId="106" priority="144" operator="equal">
-      <formula>$L102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M104">
-    <cfRule type="cellIs" dxfId="105" priority="143" operator="equal">
-      <formula>$M102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K104">
-    <cfRule type="cellIs" dxfId="104" priority="147" operator="equal">
-      <formula>$K102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="103" priority="131" operator="equal">
-      <formula>$L148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="102" priority="130" operator="equal">
-      <formula>$L148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="101" priority="129" operator="equal">
-      <formula>$L148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="100" priority="126" operator="equal">
-      <formula>$K148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="99" priority="125" operator="equal">
-      <formula>$K148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="98" priority="123" operator="equal">
-      <formula>$J148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I149">
-    <cfRule type="cellIs" dxfId="97" priority="122" operator="equal">
-      <formula>$I148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I218">
-    <cfRule type="cellIs" dxfId="96" priority="117" operator="equal">
-      <formula>$I216</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J218">
-    <cfRule type="cellIs" dxfId="95" priority="116" operator="equal">
-      <formula>$J216</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L218">
-    <cfRule type="cellIs" dxfId="94" priority="115" operator="equal">
-      <formula>$L216</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M218">
-    <cfRule type="cellIs" dxfId="93" priority="114" operator="equal">
-      <formula>$M216</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K218">
-    <cfRule type="cellIs" dxfId="92" priority="118" operator="equal">
-      <formula>$K216</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S218">
-    <cfRule type="cellIs" dxfId="91" priority="119" operator="equal">
-      <formula>$S216</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="90" priority="113" operator="equal">
-      <formula>$I157</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="89" priority="1204" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76">
-    <cfRule type="cellIs" dxfId="88" priority="1206" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L76">
-    <cfRule type="cellIs" dxfId="87" priority="1208" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M76">
-    <cfRule type="cellIs" dxfId="86" priority="1210" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K76">
-    <cfRule type="cellIs" dxfId="85" priority="1217" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S76">
-    <cfRule type="cellIs" dxfId="84" priority="1219" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="83" priority="112" operator="equal">
-      <formula>$M146</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="82" priority="111" operator="equal">
-      <formula>$M146</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="81" priority="110" operator="equal">
-      <formula>$M147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="80" priority="109" operator="equal">
-      <formula>$M147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="79" priority="108" operator="equal">
-      <formula>$M148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="78" priority="107" operator="equal">
-      <formula>$M148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="77" priority="106" operator="equal">
-      <formula>$M148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="76" priority="105" operator="equal">
-      <formula>$M148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I237 B237">
-    <cfRule type="cellIs" dxfId="75" priority="99" operator="equal">
-      <formula>$I236</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J237">
-    <cfRule type="cellIs" dxfId="74" priority="98" operator="equal">
-      <formula>$J236</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L237">
-    <cfRule type="cellIs" dxfId="73" priority="97" operator="equal">
-      <formula>$L236</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M237">
-    <cfRule type="cellIs" dxfId="72" priority="96" operator="equal">
-      <formula>$M236</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K237">
-    <cfRule type="cellIs" dxfId="71" priority="100" operator="equal">
-      <formula>$K236</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S237">
-    <cfRule type="cellIs" dxfId="70" priority="95" operator="equal">
-      <formula>$S236</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M340:M359">
-    <cfRule type="cellIs" dxfId="69" priority="60" operator="equal">
-      <formula>$M339</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I337">
-    <cfRule type="cellIs" dxfId="68" priority="83" operator="equal">
-      <formula>$I336</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J337">
-    <cfRule type="cellIs" dxfId="67" priority="82" operator="equal">
-      <formula>$J336</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L337">
-    <cfRule type="cellIs" dxfId="66" priority="81" operator="equal">
-      <formula>$L336</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M337">
-    <cfRule type="cellIs" dxfId="65" priority="80" operator="equal">
-      <formula>$M336</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K337">
-    <cfRule type="cellIs" dxfId="64" priority="84" operator="equal">
-      <formula>$K336</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L338">
-    <cfRule type="cellIs" dxfId="63" priority="74" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M338">
-    <cfRule type="cellIs" dxfId="62" priority="73" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L340:L359">
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
-      <formula>$L339</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K340:K359">
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
-      <formula>$K339</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I338">
-    <cfRule type="cellIs" dxfId="59" priority="76" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K338">
-    <cfRule type="cellIs" dxfId="58" priority="75" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I339">
-    <cfRule type="cellIs" dxfId="57" priority="71" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J339">
-    <cfRule type="cellIs" dxfId="56" priority="70" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L339">
-    <cfRule type="cellIs" dxfId="55" priority="69" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M339">
-    <cfRule type="cellIs" dxfId="54" priority="68" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K339">
-    <cfRule type="cellIs" dxfId="53" priority="72" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J340:J359">
-    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
-      <formula>$J339</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M360">
-    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
-      <formula>$M359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L360">
-    <cfRule type="cellIs" dxfId="50" priority="57" operator="equal">
-      <formula>$L359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K360">
-    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
-      <formula>$K359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J360">
-    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
-      <formula>$J359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I364">
-    <cfRule type="cellIs" dxfId="47" priority="90" operator="equal">
-      <formula>$I359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J364">
-    <cfRule type="cellIs" dxfId="46" priority="91" operator="equal">
-      <formula>$J359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L364">
-    <cfRule type="cellIs" dxfId="45" priority="92" operator="equal">
-      <formula>$L359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M364">
-    <cfRule type="cellIs" dxfId="44" priority="93" operator="equal">
-      <formula>$M359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K364">
-    <cfRule type="cellIs" dxfId="43" priority="94" operator="equal">
-      <formula>$K359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M361">
-    <cfRule type="cellIs" dxfId="42" priority="52" operator="equal">
-      <formula>$M360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L361">
-    <cfRule type="cellIs" dxfId="41" priority="53" operator="equal">
-      <formula>$L360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K361">
-    <cfRule type="cellIs" dxfId="40" priority="55" operator="equal">
-      <formula>$K360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J361">
-    <cfRule type="cellIs" dxfId="39" priority="54" operator="equal">
-      <formula>$J360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M363">
-    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
-      <formula>$M361</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L363">
-    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
-      <formula>$L361</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K363">
-    <cfRule type="cellIs" dxfId="36" priority="51" operator="equal">
-      <formula>$K361</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J363">
-    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
-      <formula>$J361</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M362">
-    <cfRule type="cellIs" dxfId="34" priority="44" operator="equal">
-      <formula>$M360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L362">
-    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
-      <formula>$L360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K362">
-    <cfRule type="cellIs" dxfId="32" priority="47" operator="equal">
-      <formula>$K360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J362">
-    <cfRule type="cellIs" dxfId="31" priority="46" operator="equal">
-      <formula>$J360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I340:I363">
-    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
-      <formula>$I339</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J338">
-    <cfRule type="cellIs" dxfId="29" priority="1220" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J370">
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
-      <formula>$J377</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L370">
-    <cfRule type="cellIs" dxfId="27" priority="34" operator="equal">
-      <formula>$L377</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K370">
-    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
-      <formula>$K377</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S370">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
-      <formula>$S369</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J372:J373">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
-      <formula>$J371</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L372:L373">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
-      <formula>$L371</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M372:M373">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
-      <formula>$M371</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K372:K373">
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
-      <formula>$K371</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J371">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
-      <formula>$J369</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L371">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
-      <formula>$L369</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K371">
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
-      <formula>$K369</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M366:M367">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
-      <formula>$M365</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M368">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
-      <formula>$M367</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I367:I373">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
-      <formula>$M366</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I365">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>#REF!</formula>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>$M10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+      <formula>$K10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S11">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I366">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>$I365</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I374:I375">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>$I373</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J374:J375">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>$J373</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L374:L375">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>$L373</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M374:M375">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>$M373</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K374:K375">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
-      <formula>$K373</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M370:M371">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>$M369</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S16">
-    <cfRule type="cellIs" dxfId="6" priority="1223" operator="equal">
-      <formula>$S10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11 I11">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>$J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>$L10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>$M10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>$K10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S11">
+  <conditionalFormatting sqref="I367">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>$I366</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I368">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>$I367</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I369">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>$I368</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I370">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>$I369</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I371">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>$I370</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I372">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$I371</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I373">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>$S10</formula>
+      <formula>$I372</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
